--- a/tphcm/data_tphcm_regression.xlsx
+++ b/tphcm/data_tphcm_regression.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>Features</t>
+    <t>Năm</t>
   </si>
   <si>
     <t>Dân số HCM (New) (Đơn vị: 1.000 người) (Mã số: 4)</t>
@@ -177,22 +177,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,27 +524,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,19 +633,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,139 +663,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1148,839 +1112,839 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:46">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>2019</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>12647</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>96484</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>13.1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>6908</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>54659</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>12.6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>2051780</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>7707200</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>26.6</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>1475676</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>4866316</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>30.3</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>107.11</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>107.36</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>-0.25</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>576623</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>1551074</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>37.2</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>142066</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>1747987</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>8.1</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>162.2</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>79.9</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>2</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>604445</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>2670471</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>22.6</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>13446</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>30943</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>43.5</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>112747</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>363310</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>31</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>281319</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="1">
         <v>758610</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="1">
         <v>37.1</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="1">
         <v>680861</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="1">
         <v>5377699</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>12.7</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>1307965</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="1">
         <v>4892114</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="1">
         <v>26.7</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="1">
         <v>72289</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2" s="1">
         <v>264267</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="1">
         <v>27.4</v>
       </c>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>12976</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>97583</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>13.3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>6765</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>53610</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>12.6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2055017</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>8044386</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>25.5</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>1482140</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>5005756</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>29.6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>100.44</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>102.87</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>-2.43</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>532643</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>1510579</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>35.3</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>177119</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>1709524</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>10.4</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>158.4</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>82.4</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>1.9</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>593358</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>2803065</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>21.2</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>14374</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>33062</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>43.5</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>118545</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>386234</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>30.7</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="1">
         <v>300481</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="1">
         <v>811538</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="1">
         <v>37</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="1">
         <v>658355</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="1">
         <v>5200323</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="1">
         <v>12.7</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="1">
         <v>1266396</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="1">
         <v>4847645</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="1">
         <v>26.1</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="1">
         <v>76278</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="1">
         <v>282629</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2021</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>12940</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>98504</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>13.1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6517</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>49072</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>13.3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2067397</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>8487476</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>24.4</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1437223</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>5133589</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>28</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>96.97</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>102.55</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>-5.58</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>573369</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>1568453</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>36.6</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>213800</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>1854940</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>11.5</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>159.8</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>86.2</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>1.9</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>492408</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>2896728</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>17</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>14933</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="1">
         <v>34479</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="1">
         <v>43.3</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="1">
         <v>123728</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <v>419884</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="1">
         <v>29.5</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="1">
         <v>317526</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="1">
         <v>857551</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="1">
         <v>37</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="1">
         <v>576953</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="1">
         <v>5067365</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="1">
         <v>11.4</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="1">
         <v>931958</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="1">
         <v>4657066</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="1">
         <v>20</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="1">
         <v>83570</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1">
         <v>336167</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="1">
         <v>24.9</v>
       </c>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>2022</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>13332</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>99468</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>13.4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>6891</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>50605</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>13.6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>2346329</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>9548738</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>24.6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>1562472</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>5550617</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>28.1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>108.71</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>108.12</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.59</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>684930</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>1784800</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>38.4</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>182196</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>1562300</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>11.7</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>176</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>96</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>1.8</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>549378</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>3222679</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>17</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>15957</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>36345</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="1">
         <v>43.9</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="1">
         <v>129182</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>440535</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="1">
         <v>29.3</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="1">
         <v>326737</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="1">
         <v>895876</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="1">
         <v>36.5</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="1">
         <v>620049</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="1">
         <v>5169722</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="1">
         <v>12</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="1">
         <v>1121476</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="1">
         <v>5686152</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="1">
         <v>19.7</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="1">
         <v>88030</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="1">
         <v>371715</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5" s="1">
         <v>23.7</v>
       </c>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>2023</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>13468</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>100309</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>13.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7125</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>51287</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>13.9</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2500589</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>10221815</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>24.5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>1636287</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5854086</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>28</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>104.72</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>105.47</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>-0.74</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>645427</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>1717800</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>37.6</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>171997</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>1731900</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>9.9</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>185.7</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <v>101.9</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>1.8</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>590560</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>3423470</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>17.3</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="1">
         <v>17133</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="1">
         <v>39151</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="1">
         <v>43.8</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="1">
         <v>132792</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="1">
         <v>470170</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="1">
         <v>28.2</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="1">
         <v>328687</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="1">
         <v>921372</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6" s="1">
         <v>35.7</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="1">
         <v>606640</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
         <v>5084824</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6" s="1">
         <v>11.9</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="1">
         <v>1509467</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="1">
         <v>5865487</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="1">
         <v>25.7</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="1">
         <v>79120</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="1">
         <v>354671</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6" s="1">
         <v>22.3</v>
       </c>
     </row>
